--- a/ExaminationManagement/Resources/Templates/学生信息模板.xlsx
+++ b/ExaminationManagement/Resources/Templates/学生信息模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\ExaminationManagement\ExaminationManagement\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BE23A1A8-AC69-43A0-8766-0E6518DCCB34}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,18 +58,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>←这是一行例子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +142,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -421,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,7 +432,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +451,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>221500101</v>
       </c>
@@ -464,7 +466,7 @@
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -472,8 +474,8 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
+      <c r="G2">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/ExaminationManagement/Resources/Templates/学生信息模板.xlsx
+++ b/ExaminationManagement/Resources/Templates/学生信息模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\ExaminationManagement\ExaminationManagement\Resources\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NULL\Source\Repos\ExaminationManagement\ExaminationManagement\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A56977F-34E0-47D8-8F47-EC88DF2CDFDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +139,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -420,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,7 +429,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,42 +437,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>221500101</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2015</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2015</v>
       </c>
     </row>
   </sheetData>
